--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.7850600875294</v>
+        <v>200.7813068643541</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.8884801972301</v>
+        <v>274.7178418977862</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.2843866486533</v>
+        <v>248.4991566360547</v>
       </c>
       <c r="AD2" t="n">
-        <v>157785.0600875294</v>
+        <v>200781.3068643541</v>
       </c>
       <c r="AE2" t="n">
-        <v>215888.4801972301</v>
+        <v>274717.8418977862</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.272106013666579e-06</v>
+        <v>4.717278799454148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>195284.3866486532</v>
+        <v>248499.1566360547</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.5551859144583</v>
+        <v>150.0886570963918</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.1077033031021</v>
+        <v>205.3579220834245</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.0181260054527</v>
+        <v>185.7588502214947</v>
       </c>
       <c r="AD3" t="n">
-        <v>115555.1859144583</v>
+        <v>150088.6570963918</v>
       </c>
       <c r="AE3" t="n">
-        <v>158107.7033031021</v>
+        <v>205357.9220834245</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.030681695186226e-06</v>
+        <v>5.810890364992728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.54050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>143018.1260054527</v>
+        <v>185758.8502214947</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.5186751216086</v>
+        <v>158.1031179955996</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.3719446775539</v>
+        <v>216.3236610587761</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.1118853961016</v>
+        <v>195.6780344595536</v>
       </c>
       <c r="AD2" t="n">
-        <v>124518.6751216086</v>
+        <v>158103.1179955996</v>
       </c>
       <c r="AE2" t="n">
-        <v>170371.9446775539</v>
+        <v>216323.6610587761</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.918518340508086e-06</v>
+        <v>5.736563439947089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>154111.8853961016</v>
+        <v>195678.0344595536</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.4985766981697</v>
+        <v>145.1682709181813</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.5572716084109</v>
+        <v>198.6256326422823</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.9974197216213</v>
+        <v>179.6690810357854</v>
       </c>
       <c r="AD3" t="n">
-        <v>111498.5766981697</v>
+        <v>145168.2709181813</v>
       </c>
       <c r="AE3" t="n">
-        <v>152557.2716084109</v>
+        <v>198625.6326422823</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.106987527658484e-06</v>
+        <v>6.012475239921806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>137997.4197216213</v>
+        <v>179669.0810357854</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.395806464191</v>
+        <v>152.1469092808181</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.15314507415</v>
+        <v>208.1741135258329</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.3455466671224</v>
+        <v>188.3062683051901</v>
       </c>
       <c r="AD2" t="n">
-        <v>113395.806464191</v>
+        <v>152146.9092808181</v>
       </c>
       <c r="AE2" t="n">
-        <v>155153.14507415</v>
+        <v>208174.1135258329</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.958374065837936e-06</v>
+        <v>6.124093273501194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.865740740740742</v>
       </c>
       <c r="AH2" t="n">
-        <v>140345.5466671224</v>
+        <v>188306.2683051901</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.6360008309316</v>
+        <v>146.6366115318889</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.8500337202377</v>
+        <v>200.6346810485721</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.8804866424261</v>
+        <v>181.4863886818968</v>
       </c>
       <c r="AD2" t="n">
-        <v>114636.0008309316</v>
+        <v>146636.6115318889</v>
       </c>
       <c r="AE2" t="n">
-        <v>156850.0337202377</v>
+        <v>200634.6810485721</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.099048277686952e-06</v>
+        <v>6.194866938410321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.188657407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>141880.4866424261</v>
+        <v>181486.3886818968</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.6375433475058</v>
+        <v>160.4316015332111</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.7980971945511</v>
+        <v>219.5095949603781</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.7836823044582</v>
+        <v>198.5599073010741</v>
       </c>
       <c r="AD2" t="n">
-        <v>122637.5433475058</v>
+        <v>160431.6015332111</v>
       </c>
       <c r="AE2" t="n">
-        <v>167798.0971945511</v>
+        <v>219509.5949603781</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.693974820815588e-06</v>
+        <v>5.838282840926741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>151783.6823044582</v>
+        <v>198559.9073010741</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.939226026934</v>
+        <v>163.7507052906743</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.7885815640449</v>
+        <v>224.0509391498604</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.8206888674636</v>
+        <v>202.6678319749302</v>
       </c>
       <c r="AD2" t="n">
-        <v>129939.226026934</v>
+        <v>163750.7052906743</v>
       </c>
       <c r="AE2" t="n">
-        <v>177788.5815640449</v>
+        <v>224050.9391498604</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.750760785302598e-06</v>
+        <v>5.468182721868268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.304398148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>160820.6888674636</v>
+        <v>202667.8319749302</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.3587297042059</v>
+        <v>146.2554603139667</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.7341708985415</v>
+        <v>200.1131731370062</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.0619973952907</v>
+        <v>181.0146527534696</v>
       </c>
       <c r="AD3" t="n">
-        <v>112358.7297042059</v>
+        <v>146255.4603139667</v>
       </c>
       <c r="AE3" t="n">
-        <v>153734.1708985415</v>
+        <v>200113.1731370062</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.094054223240806e-06</v>
+        <v>5.968665518110636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.609953703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>139061.9973952907</v>
+        <v>181014.6527534696</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.3251626696089</v>
+        <v>176.8519937012994</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.0531253386468</v>
+        <v>241.9766999413211</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.7736691660345</v>
+        <v>218.8827833154229</v>
       </c>
       <c r="AD2" t="n">
-        <v>132325.1626696089</v>
+        <v>176851.9937012994</v>
       </c>
       <c r="AE2" t="n">
-        <v>181053.1253386468</v>
+        <v>241976.6999413211</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.472153239735616e-06</v>
+        <v>5.563205090790033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.74074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>163773.6691660345</v>
+        <v>218882.7833154229</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.4051860227318</v>
+        <v>141.3380373106229</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.3247580155139</v>
+        <v>193.3849380424426</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.1688512856589</v>
+        <v>174.9285509731918</v>
       </c>
       <c r="AD2" t="n">
-        <v>108405.1860227318</v>
+        <v>141338.0373106229</v>
       </c>
       <c r="AE2" t="n">
-        <v>148324.7580155139</v>
+        <v>193384.9380424426</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.136925882982169e-06</v>
+        <v>6.14268625437491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.829861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>134168.8512856589</v>
+        <v>174928.5509731918</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.6491169687738</v>
+        <v>141.5819682566649</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.6585150973622</v>
+        <v>193.718695124291</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.4707550600467</v>
+        <v>175.2304547475796</v>
       </c>
       <c r="AD3" t="n">
-        <v>108649.1169687738</v>
+        <v>141581.9682566649</v>
       </c>
       <c r="AE3" t="n">
-        <v>148658.5150973622</v>
+        <v>193718.695124291</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137541621899872e-06</v>
+        <v>6.143600530118069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.829861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>134470.7550600467</v>
+        <v>175230.4547475796</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.3434228136958</v>
+        <v>145.7774473002821</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.7132273356532</v>
+        <v>199.4591346432374</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.04305265665</v>
+        <v>180.4230347755971</v>
       </c>
       <c r="AD2" t="n">
-        <v>112343.4228136958</v>
+        <v>145777.4473002821</v>
       </c>
       <c r="AE2" t="n">
-        <v>153713.2273356532</v>
+        <v>199459.1346432374</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.029944102567209e-06</v>
+        <v>5.925800996982824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.876157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>139043.05265665</v>
+        <v>180423.0347755971</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.4042455923571</v>
+        <v>143.8382700789435</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.0599595109578</v>
+        <v>196.805866818542</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.6430089892579</v>
+        <v>178.022991108205</v>
       </c>
       <c r="AD3" t="n">
-        <v>110404.2455923571</v>
+        <v>143838.2700789435</v>
       </c>
       <c r="AE3" t="n">
-        <v>151059.9595109578</v>
+        <v>196805.866818542</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.122523454824121e-06</v>
+        <v>6.061933609232845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.69675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>136643.0089892579</v>
+        <v>178022.991108205</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.1687347760041</v>
+        <v>184.9933699630778</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.5215349623623</v>
+        <v>253.1160901148522</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.9566726782984</v>
+        <v>228.959045725028</v>
       </c>
       <c r="AD2" t="n">
-        <v>142168.7347760041</v>
+        <v>184993.3699630778</v>
       </c>
       <c r="AE2" t="n">
-        <v>194521.5349623623</v>
+        <v>253116.0901148522</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.428703139877812e-06</v>
+        <v>4.960553436292697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.935185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>175956.6726782984</v>
+        <v>228959.045725028</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.927611114231</v>
+        <v>149.2555919475473</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.2490277747854</v>
+        <v>204.2180855945355</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.2414012643997</v>
+        <v>184.7277981273344</v>
       </c>
       <c r="AD3" t="n">
-        <v>114927.611114231</v>
+        <v>149255.5919475473</v>
       </c>
       <c r="AE3" t="n">
-        <v>157249.0277747854</v>
+        <v>204218.0855945355</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.03442234267058e-06</v>
+        <v>5.836891325652583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.592592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>142241.4012643997</v>
+        <v>184727.7981273344</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.3089733421805</v>
+        <v>147.6069589289553</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.7708243995797</v>
+        <v>201.9623531659434</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.71339835167</v>
+        <v>182.6873496357861</v>
       </c>
       <c r="AD2" t="n">
-        <v>115308.9733421805</v>
+        <v>147606.9589289553</v>
       </c>
       <c r="AE2" t="n">
-        <v>157770.8243995797</v>
+        <v>201962.3531659434</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118419533751829e-06</v>
+        <v>6.184567247975545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.049768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>142713.39835167</v>
+        <v>182687.3496357861</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.6467054349996</v>
+        <v>152.8523245408297</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.4964361148915</v>
+        <v>209.1392938053051</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.6560744927476</v>
+        <v>189.1793331334288</v>
       </c>
       <c r="AD2" t="n">
-        <v>113646.7054349996</v>
+        <v>152852.3245408297</v>
       </c>
       <c r="AE2" t="n">
-        <v>155496.4361148915</v>
+        <v>209139.2938053051</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023001137992752e-06</v>
+        <v>6.170264916143871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.582175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>140656.0744927477</v>
+        <v>189179.3331334288</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.4965863223055</v>
+        <v>159.6672945721699</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.2369894572014</v>
+        <v>218.4638364574387</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.3715644985322</v>
+        <v>197.6139545219236</v>
       </c>
       <c r="AD2" t="n">
-        <v>121496.5863223055</v>
+        <v>159667.2945721699</v>
       </c>
       <c r="AE2" t="n">
-        <v>166236.9894572014</v>
+        <v>218463.8364574387</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.852859812630954e-06</v>
+        <v>6.020017458167647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>150371.5644985322</v>
+        <v>197613.9545219236</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.2705470996205</v>
+        <v>195.9358327085876</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.3432802440339</v>
+        <v>268.0880503906369</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.4592899892331</v>
+        <v>242.5021031253748</v>
       </c>
       <c r="AD2" t="n">
-        <v>152270.5470996205</v>
+        <v>195935.8327085876</v>
       </c>
       <c r="AE2" t="n">
-        <v>208343.2802440339</v>
+        <v>268088.0503906368</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.106901840275944e-06</v>
+        <v>5.06324377696858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.33796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>188459.2899892331</v>
+        <v>242502.1031253748</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9911396463946</v>
+        <v>143.1799222032789</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4947297307441</v>
+        <v>195.9050862107998</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1317239459627</v>
+        <v>177.2081797374119</v>
       </c>
       <c r="AD2" t="n">
-        <v>109991.1396463946</v>
+        <v>143179.9222032789</v>
       </c>
       <c r="AE2" t="n">
-        <v>150494.7297307441</v>
+        <v>195905.0862107998</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.103465792469932e-06</v>
+        <v>6.062381594819226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>136131.7239459627</v>
+        <v>177208.1797374119</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.4652050723513</v>
+        <v>142.6539876292356</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.7751228439425</v>
+        <v>195.1854793239983</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.4807953304626</v>
+        <v>176.5572511219119</v>
       </c>
       <c r="AD3" t="n">
-        <v>109465.2050723513</v>
+        <v>142653.9876292356</v>
       </c>
       <c r="AE3" t="n">
-        <v>149775.1228439425</v>
+        <v>195185.4793239983</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.134652110335461e-06</v>
+        <v>6.108455662205169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.75462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>135480.7953304626</v>
+        <v>176557.2511219119</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.3661467405474</v>
+        <v>178.9257200895084</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.5821780201373</v>
+        <v>244.8140638720187</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.7750368196794</v>
+        <v>221.4493532148409</v>
       </c>
       <c r="AD2" t="n">
-        <v>136366.1467405474</v>
+        <v>178925.7200895084</v>
       </c>
       <c r="AE2" t="n">
-        <v>186582.1780201373</v>
+        <v>244814.0638720187</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.5732140679941e-06</v>
+        <v>5.188910755750025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>168775.0368196794</v>
+        <v>221449.3532148409</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.3722513428429</v>
+        <v>147.488182705669</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.1209159179429</v>
+        <v>201.7998382972061</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.3163934163498</v>
+        <v>182.5403449580299</v>
       </c>
       <c r="AD3" t="n">
-        <v>113372.2513428429</v>
+        <v>147488.182705669</v>
       </c>
       <c r="AE3" t="n">
-        <v>155120.9159179429</v>
+        <v>201799.8382972061</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.074598865661727e-06</v>
+        <v>5.917006223830274e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.581018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>140316.3934163498</v>
+        <v>182540.3449580299</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5180048214126</v>
+        <v>250.3882988446184</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.2021627901676</v>
+        <v>342.5923168311789</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8460265520334</v>
+        <v>309.8957869442499</v>
       </c>
       <c r="AD2" t="n">
-        <v>186518.0048214126</v>
+        <v>250388.2988446184</v>
       </c>
       <c r="AE2" t="n">
-        <v>255202.1627901676</v>
+        <v>342592.316831179</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.502993574440374e-06</v>
+        <v>4.17234116263331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.85648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>230846.0265520334</v>
+        <v>309895.7869442499</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9270451884227</v>
+        <v>145.6119577456652</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.8800093332418</v>
+        <v>199.2327045337267</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.0030400214871</v>
+        <v>180.2182148379414</v>
       </c>
       <c r="AD2" t="n">
-        <v>113927.0451884227</v>
+        <v>145611.9577456652</v>
       </c>
       <c r="AE2" t="n">
-        <v>155880.0093332418</v>
+        <v>199232.7045337267</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.07423718142879e-06</v>
+        <v>6.200608544881812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.350694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>141003.0400214871</v>
+        <v>180218.2148379414</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7617402353767</v>
+        <v>148.4221642913889</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4443671024305</v>
+        <v>203.0777531071469</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3724836456835</v>
+        <v>183.6962973720751</v>
       </c>
       <c r="AD2" t="n">
-        <v>107761.7402353767</v>
+        <v>148422.1642913889</v>
       </c>
       <c r="AE2" t="n">
-        <v>147444.3671024305</v>
+        <v>203077.7531071469</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.131811287381563e-06</v>
+        <v>6.168425256610066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.92824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>133372.4836456835</v>
+        <v>183696.2973720751</v>
       </c>
     </row>
   </sheetData>
